--- a/pin-mapping/photon-pinmap.xlsx
+++ b/pin-mapping/photon-pinmap.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="237">
   <si>
     <t>Module Pin Name</t>
   </si>
@@ -67,9 +67,6 @@
     <t>USART1_TX</t>
   </si>
   <si>
-    <t>ADC2</t>
-  </si>
-  <si>
     <t>TX</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>USART1_RX</t>
-  </si>
-  <si>
-    <t>ADC3</t>
   </si>
   <si>
     <t>RX</t>
@@ -686,23 +680,68 @@
     <t xml:space="preserve"> GPIO PIN MAP</t>
   </si>
   <si>
-    <t xml:space="preserve">                   Functions</t>
-  </si>
-  <si>
-    <t>P0 Pin #</t>
-  </si>
-  <si>
-    <t>P0 Pin Name</t>
-  </si>
-  <si>
-    <t>Photon Pinmap - March 23rd 2015</t>
+    <t>ADC4</t>
+  </si>
+  <si>
+    <t>PØ Pin Name</t>
+  </si>
+  <si>
+    <t>PØ Pin #</t>
+  </si>
+  <si>
+    <t>Photon Pinmap - June 18th 2015</t>
+  </si>
+  <si>
+    <t>User I/O</t>
+  </si>
+  <si>
+    <t>SMPS Enable</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>PWM/Servo/Tone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peripheral Key </t>
+  </si>
+  <si>
+    <t>JTAG</t>
+  </si>
+  <si>
+    <t>SPI1</t>
+  </si>
+  <si>
+    <t>I2S</t>
+  </si>
+  <si>
+    <t>I2C/Wire</t>
+  </si>
+  <si>
+    <t>Serial1</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Photon</t>
+  </si>
+  <si>
+    <t>Pin #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -757,8 +796,71 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,8 +987,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5B8B7"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9ECAC"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2D69B"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91C2DE"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5B6CA"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D6E9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4A5CE"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0D9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6FCF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1037,13 +1217,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1107,34 +1397,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1186,16 +1459,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1223,26 +1490,265 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="15" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="15" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2571,10 +3077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW48"/>
+  <dimension ref="A1:IW64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2606,150 +3112,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="40" t="s">
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="40" t="s">
+      <c r="L2" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="M2" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="89" t="s">
+      <c r="N2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="39" t="s">
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="V2" s="42" t="s">
-        <v>222</v>
+      <c r="U2" s="119" t="s">
+        <v>220</v>
+      </c>
+      <c r="V2" s="121" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="62" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="30"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="63" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
       <c r="T4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="19">
         <v>26</v>
       </c>
-      <c r="V4" s="45" t="s">
+      <c r="V4" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="19">
@@ -2758,480 +3266,478 @@
       <c r="D5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="72" t="s">
+      <c r="L5" s="75"/>
+      <c r="M5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="73" t="s">
+      <c r="N5" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="N5" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="U5" s="19">
         <v>28</v>
       </c>
-      <c r="V5" s="46" t="s">
-        <v>17</v>
+      <c r="V5" s="35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="27" t="s">
-        <v>19</v>
+      <c r="A6" s="28"/>
+      <c r="B6" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="19">
         <v>38</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="55" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="88"/>
-      <c r="M6" s="73" t="s">
+      <c r="L6" s="75"/>
+      <c r="M6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
-      <c r="V6" s="30"/>
+      <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="27" t="s">
-        <v>25</v>
+      <c r="A7" s="28"/>
+      <c r="B7" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="19">
         <v>27</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="58" t="s">
+      <c r="L7" s="75"/>
+      <c r="M7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="72" t="s">
+      <c r="N7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="88"/>
-      <c r="M7" s="73" t="s">
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="N7" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="U7" s="19">
         <v>44</v>
       </c>
-      <c r="V7" s="45" t="s">
-        <v>33</v>
+      <c r="V7" s="34" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="27" t="s">
-        <v>34</v>
+      <c r="A8" s="28"/>
+      <c r="B8" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="19">
         <v>22</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="48" t="s">
+      <c r="L8" s="75"/>
+      <c r="M8" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="72" t="s">
+      <c r="N8" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="88"/>
-      <c r="M8" s="73" t="s">
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="N8" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="U8" s="19">
         <v>40</v>
       </c>
-      <c r="V8" s="45" t="s">
-        <v>41</v>
+      <c r="V8" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="27" t="s">
-        <v>42</v>
+      <c r="A9" s="28"/>
+      <c r="B9" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="19">
         <v>23</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="I9" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="59" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="L9" s="75"/>
+      <c r="M9" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="72" t="s">
+      <c r="N9" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="73" t="s">
+      <c r="O9" s="33"/>
+      <c r="P9" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="68" t="s">
+      <c r="Q9" s="33"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="T9" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="U9" s="19">
         <v>43</v>
       </c>
-      <c r="V9" s="45" t="s">
-        <v>52</v>
+      <c r="V9" s="34" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="27" t="s">
-        <v>53</v>
+      <c r="A10" s="28"/>
+      <c r="B10" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="19">
         <v>25</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="I10" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="60" t="s">
+      <c r="J10" s="26"/>
+      <c r="K10" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="L10" s="75"/>
+      <c r="M10" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="72" t="s">
+      <c r="N10" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="73" t="s">
+      <c r="O10" s="33"/>
+      <c r="P10" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="68" t="s">
+      <c r="Q10" s="33"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T10" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="U10" s="19">
         <v>41</v>
       </c>
-      <c r="V10" s="45" t="s">
-        <v>63</v>
+      <c r="V10" s="34" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="27" t="s">
-        <v>64</v>
+      <c r="A11" s="28"/>
+      <c r="B11" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="19">
         <v>24</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48" t="s">
+      <c r="I11" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="60" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="L11" s="75"/>
+      <c r="M11" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="72" t="s">
+      <c r="N11" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="73" t="s">
+      <c r="O11" s="33"/>
+      <c r="P11" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="69" t="s">
+      <c r="Q11" s="33"/>
+      <c r="R11" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="39"/>
+      <c r="T11" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="O11" s="44"/>
-      <c r="P11" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" s="50"/>
-      <c r="T11" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="U11" s="19">
         <v>42</v>
       </c>
-      <c r="V11" s="45" t="s">
-        <v>74</v>
+      <c r="V11" s="34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="27" t="s">
-        <v>75</v>
+      <c r="A12" s="28"/>
+      <c r="B12" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C12" s="19">
         <v>2</v>
       </c>
       <c r="D12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="61" t="s">
+      <c r="J12" s="26"/>
+      <c r="K12" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="L12" s="75"/>
+      <c r="M12" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="72" t="s">
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="73" t="s">
+      <c r="Q12" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="82" t="s">
+      <c r="R12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="T12" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="Q12" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="R12" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="U12" s="19">
         <v>3</v>
       </c>
-      <c r="V12" s="45" t="s">
-        <v>84</v>
+      <c r="V12" s="34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="27" t="s">
-        <v>85</v>
+      <c r="A13" s="28"/>
+      <c r="B13" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="19">
         <v>1</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="57" t="s">
+      <c r="L13" s="75"/>
+      <c r="M13" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="72" t="s">
+      <c r="N13" s="33"/>
+      <c r="O13" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="73" t="s">
+      <c r="P13" s="33"/>
+      <c r="Q13" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="85" t="s">
+      <c r="R13" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="84" t="s">
+      <c r="S13" s="39"/>
+      <c r="T13" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="R13" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="S13" s="50"/>
-      <c r="T13" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="U13" s="19">
         <v>5</v>
       </c>
-      <c r="V13" s="45" t="s">
-        <v>94</v>
+      <c r="V13" s="34" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="27" t="s">
-        <v>95</v>
+      <c r="A14" s="28"/>
+      <c r="B14" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="C14" s="19">
         <v>54</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="58" t="s">
+      <c r="L14" s="75"/>
+      <c r="M14" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="72" t="s">
+      <c r="N14" s="33"/>
+      <c r="O14" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="73" t="s">
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="44"/>
-      <c r="O14" s="86" t="s">
+      <c r="S14" s="39"/>
+      <c r="T14" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="S14" s="50"/>
-      <c r="T14" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="U14" s="19">
         <v>4</v>
       </c>
-      <c r="V14" s="45" t="s">
-        <v>103</v>
+      <c r="V14" s="34" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -3240,7 +3746,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="36"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
@@ -3252,690 +3758,736 @@
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="32"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="35"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="76"/>
+      <c r="I16" s="123" t="s">
+        <v>235</v>
+      </c>
       <c r="J16" s="16"/>
-      <c r="K16" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="95"/>
+      <c r="K16" s="169" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" s="169"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="169"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="170" t="s">
+        <v>216</v>
+      </c>
+      <c r="R16" s="169"/>
+      <c r="S16" s="169"/>
+      <c r="T16" s="169"/>
+      <c r="U16" s="169"/>
+      <c r="V16" s="171"/>
     </row>
     <row r="17" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="19">
-        <v>8</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="35"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="124" t="s">
+        <v>236</v>
+      </c>
       <c r="J17" s="16"/>
       <c r="K17" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L17" s="22">
         <v>0</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="34" t="s">
-        <v>214</v>
+        <v>106</v>
+      </c>
+      <c r="O17" s="29"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
-      <c r="W17" s="32"/>
+      <c r="W17" s="28"/>
     </row>
     <row r="18" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="19">
-        <v>7</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="35"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="108">
+        <v>8</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="122" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="82"/>
+      <c r="I18" s="81">
+        <v>27</v>
+      </c>
       <c r="J18" s="16"/>
       <c r="K18" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L18" s="18">
         <v>1</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34" t="s">
-        <v>213</v>
+        <v>106</v>
+      </c>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="32"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="28"/>
     </row>
     <row r="19" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="19">
-        <v>6</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="35"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="108">
+        <v>7</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="109"/>
+      <c r="G19" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="82"/>
+      <c r="I19" s="81">
+        <v>28</v>
+      </c>
       <c r="J19" s="16"/>
       <c r="K19" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L19" s="18">
         <v>2</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
+        <v>106</v>
+      </c>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="32"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="28"/>
     </row>
     <row r="20" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="19">
-        <v>53</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="I20" s="35"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="108">
+        <v>6</v>
+      </c>
+      <c r="D20" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="109"/>
+      <c r="G20" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="82"/>
+      <c r="I20" s="81">
+        <v>29</v>
+      </c>
       <c r="J20" s="16"/>
       <c r="K20" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L20" s="18">
         <v>3</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
+        <v>106</v>
+      </c>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="32"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="28"/>
     </row>
     <row r="21" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="19">
+      <c r="A21" s="28"/>
+      <c r="B21" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="108">
+        <v>53</v>
+      </c>
+      <c r="D21" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="122" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="109"/>
+      <c r="G21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="81">
         <v>26</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="35"/>
       <c r="J21" s="16"/>
       <c r="K21" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="18">
         <v>4</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
+        <v>106</v>
+      </c>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="32"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="19">
-        <v>51</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="35"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="108">
+        <v>26</v>
+      </c>
+      <c r="D22" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="109"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="87">
+        <v>23</v>
+      </c>
       <c r="J22" s="16"/>
       <c r="K22" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L22" s="18">
         <v>5</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="32"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="28"/>
     </row>
     <row r="23" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="19">
-        <v>52</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="35"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="108">
+        <v>51</v>
+      </c>
+      <c r="D23" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="109"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="81">
+        <v>31</v>
+      </c>
       <c r="J23" s="16"/>
       <c r="K23" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L23" s="18">
         <v>6</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="32"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="28"/>
     </row>
     <row r="24" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="108">
+        <v>52</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="109"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="81">
+        <v>30</v>
+      </c>
       <c r="J24" s="16"/>
       <c r="K24" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="18">
         <v>7</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="32"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="28"/>
     </row>
     <row r="25" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="109"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="81">
+        <v>25</v>
+      </c>
       <c r="J25" s="16"/>
       <c r="K25" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L25" s="18">
         <v>10</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
+        <v>125</v>
+      </c>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="32"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="28"/>
     </row>
     <row r="26" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
       <c r="J26" s="16"/>
       <c r="K26" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L26" s="18">
         <v>11</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
+        <v>125</v>
+      </c>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="32"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="28"/>
     </row>
     <row r="27" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="99" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="101"/>
       <c r="J27" s="16"/>
       <c r="K27" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L27" s="18">
         <v>12</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
+        <v>125</v>
+      </c>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="32"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="28"/>
     </row>
     <row r="28" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
       <c r="J28" s="16"/>
       <c r="K28" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L28" s="18">
         <v>13</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="32"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="28"/>
     </row>
     <row r="29" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L29" s="18">
         <v>14</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="32"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="28"/>
     </row>
     <row r="30" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L30" s="18">
         <v>15</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="32"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="28"/>
     </row>
     <row r="31" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L31" s="18">
         <v>16</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N31" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="32"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="28"/>
     </row>
     <row r="32" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L32" s="18">
         <v>17</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="32"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="28"/>
     </row>
     <row r="33" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L33" s="18">
         <v>18</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="32"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="28"/>
     </row>
     <row r="34" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" s="18">
         <v>19</v>
@@ -3944,105 +4496,466 @@
         <v>12</v>
       </c>
       <c r="N34" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O34" s="37"/>
-      <c r="P34" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="O34" s="31"/>
+      <c r="P34" s="29"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="32"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="28"/>
     </row>
     <row r="35" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
       <c r="J35" s="16"/>
       <c r="K35" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L35" s="18">
         <v>20</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="O35" s="37"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="32"/>
+        <v>125</v>
+      </c>
+      <c r="O35" s="31"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="28"/>
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
+      <c r="A36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
     </row>
     <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="125"/>
     </row>
     <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="146"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
     </row>
     <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="146"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
     </row>
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
     </row>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
     </row>
     <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
     </row>
     <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
     </row>
     <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
     </row>
     <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="149"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
     </row>
     <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
     </row>
     <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="149"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="125"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="125"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="125"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="125"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="163"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="125"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="125"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="163"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="125"/>
+      <c r="L54" s="125"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="125"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="163"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="125"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="125"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="163"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="125"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="125"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="162"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="125"/>
+      <c r="L58" s="125"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="125"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="166"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="162"/>
+      <c r="H59" s="162"/>
+      <c r="I59" s="163"/>
+      <c r="J59" s="125"/>
+      <c r="K59" s="125"/>
+      <c r="L59" s="125"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="125"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="168"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="125"/>
+      <c r="L60" s="125"/>
+    </row>
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="125"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="167"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="134"/>
+      <c r="J61" s="165"/>
+      <c r="K61" s="125"/>
+      <c r="L61" s="125"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="125"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
+      <c r="J62" s="165"/>
+      <c r="K62" s="125"/>
+      <c r="L62" s="125"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="125"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="125"/>
+      <c r="K63" s="125"/>
+      <c r="L63" s="125"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="125"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="125"/>
+      <c r="K64" s="125"/>
+      <c r="L64" s="125"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="L3:L14"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="E16:H16"/>
     <mergeCell ref="Q16:V16"/>
     <mergeCell ref="K16:N16"/>
   </mergeCells>
@@ -4074,19 +4987,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4094,16 +5007,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4112,16 +5025,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4130,16 +5043,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4148,16 +5061,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4166,16 +5079,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4184,16 +5097,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4202,16 +5115,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4220,16 +5133,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4238,12 +5151,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4252,12 +5165,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4266,12 +5179,12 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -4280,12 +5193,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4294,12 +5207,12 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4320,12 +5233,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4370,12 +5283,12 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -4384,12 +5297,12 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -4410,16 +5323,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="E23" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4428,16 +5341,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -4446,16 +5359,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -4464,16 +5377,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4488,10 +5401,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4500,16 +5413,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4518,16 +5431,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D29" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -4560,7 +5473,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="8"/>
@@ -4572,7 +5485,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="8"/>
@@ -4584,7 +5497,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="8"/>
@@ -4596,7 +5509,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="8"/>
@@ -4608,7 +5521,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="8"/>
@@ -4620,7 +5533,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="8"/>
@@ -4644,13 +5557,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E39" s="8"/>
     </row>
@@ -4663,10 +5576,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E40" s="8"/>
     </row>
@@ -4676,13 +5589,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E41" s="8"/>
     </row>
@@ -4692,13 +5605,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E42" s="8"/>
     </row>
@@ -4708,13 +5621,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E43" s="8"/>
     </row>
@@ -4724,13 +5637,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E44" s="8"/>
     </row>
@@ -4740,13 +5653,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E45" s="8"/>
     </row>
@@ -4768,14 +5681,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -4784,12 +5697,12 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -4810,12 +5723,12 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
       <c r="E50" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4836,16 +5749,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="E52" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -4854,16 +5767,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="E53" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -4872,13 +5785,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E54" s="8"/>
     </row>
@@ -4888,13 +5801,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E55" s="8"/>
     </row>
